--- a/viz/main figs/tables/Table1.xlsx
+++ b/viz/main figs/tables/Table1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37940" yWindow="460" windowWidth="36480" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-37940" yWindow="460" windowWidth="14600" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Bioaccumulation</t>
   </si>
   <si>
-    <t>The decrease in concentration of a pullutant with an increase in trophic level</t>
-  </si>
-  <si>
     <t>All definitions taken from Macek et al. 1979 and Campbell et al. 2005</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Table 1.</t>
+  </si>
+  <si>
+    <t>The decrease in concentration of a pollutant with an increase in trophic level</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +464,7 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -502,7 +502,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -520,12 +520,12 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -533,6 +533,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>